--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,21 +421,21 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Interest From Saving Account</v>
+        <v>Trading</v>
       </c>
       <c r="B2">
-        <v>4300</v>
+        <v>25000</v>
       </c>
       <c r="C2" s="1">
-        <v>45858.22928240741</v>
+        <v>45853.22928240741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Trading</v>
+        <v>Business Income</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="C3" s="1">
         <v>45849.22928240741</v>
@@ -446,37 +446,26 @@
         <v>Youtube Revenue</v>
       </c>
       <c r="B4">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="C4" s="1">
-        <v>45847.22928240741</v>
+        <v>45848.22928240741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Business Income</v>
+        <v>Salary</v>
       </c>
       <c r="B5">
-        <v>6500</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="1">
-        <v>45842.22928240741</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Salary</v>
-      </c>
-      <c r="B6">
-        <v>12500</v>
-      </c>
-      <c r="C6" s="1">
         <v>45839.22928240741</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>